--- a/experiment/quadratic/ex9_2_2/compare/Fuertemente-Estacionario/ex9_2_2_Fuertemente-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_2/compare/Fuertemente-Estacionario/ex9_2_2_Fuertemente-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>-2976.3445266160725</v>
       </c>
       <c r="E2">
-        <v>0.00653985</v>
+        <v>0.005763531</v>
       </c>
       <c r="F2">
-        <v>0.01103301</v>
+        <v>0.01753371</v>
       </c>
       <c r="G2">
-        <v>0.007475552919161676</v>
+        <v>0.006671206622162884</v>
       </c>
       <c r="H2">
         <v>5553</v>
